--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -5,28 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\add-outputs\BGDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-virginia\InputData\io-model\BGDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5445"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="OECD Data" sheetId="3" r:id="rId2"/>
-    <sheet name="BGDP" sheetId="2" r:id="rId3"/>
+    <sheet name="OECD Data" sheetId="2" r:id="rId2"/>
+    <sheet name="BGDP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="28">
   <si>
     <t>BGDP BAU Gross Domestic Product</t>
   </si>
@@ -40,18 +35,30 @@
     <t>Quarterly National Accounts</t>
   </si>
   <si>
+    <t>https://data.oecd.org/gdp/gdp-long-term-forecast.htm</t>
+  </si>
+  <si>
     <t>Real GDP long-term forecast</t>
   </si>
   <si>
-    <t>https://data.oecd.org/gdp/gdp-long-term-forecast.htm</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>The OECD long-term forecast gives GDPs in millions of 2010 USD with Purchasing Power Parity.</t>
   </si>
   <si>
+    <t>In the U.S. model, input data are converted to 2012 USD (then converted to the</t>
+  </si>
+  <si>
+    <t>output currency year in web-app/OCCF).  Therefore, we use these conversion factors:</t>
+  </si>
+  <si>
+    <t>2012 dollars per 2010 dollar</t>
+  </si>
+  <si>
+    <t>dollars per million dollars</t>
+  </si>
+  <si>
     <t>LOCATION</t>
   </si>
   <si>
@@ -70,7 +77,13 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>National GDP</t>
+  </si>
+  <si>
+    <t>National Growth</t>
+  </si>
+  <si>
+    <t>State GDP</t>
   </si>
   <si>
     <t>USA</t>
@@ -88,22 +101,10 @@
     <t>A</t>
   </si>
   <si>
+    <t>Unit: 2012 USD</t>
+  </si>
+  <si>
     <t>GDP</t>
-  </si>
-  <si>
-    <t>2012 dollars per 2010 dollar</t>
-  </si>
-  <si>
-    <t>dollars per million dollars</t>
-  </si>
-  <si>
-    <t>In the U.S. model, input data are converted to 2012 USD (then converted to the</t>
-  </si>
-  <si>
-    <t>output currency year in web-app/OCCF).  Therefore, we use these conversion factors:</t>
-  </si>
-  <si>
-    <t>Unit: 2012 USD</t>
   </si>
 </sst>
 </file>
@@ -162,7 +163,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -178,7 +179,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -467,17 +468,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.46484375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -485,61 +486,61 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1.0529130131709286</v>
+        <v>1.052913013170929</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>10^6</f>
         <v>1000000</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -547,64 +548,74 @@
     <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.1328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.796875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>2014</v>
@@ -612,22 +623,29 @@
       <c r="G2">
         <v>16208167.451801199</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>G2/G2</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>445869200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>2015</v>
@@ -635,22 +653,29 @@
       <c r="G3" s="5">
         <v>16671978.001079099</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H48" si="0">G3/G2</f>
+        <v>1.0286158537451657</v>
+      </c>
+      <c r="I3">
+        <v>454952900000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>2016</v>
@@ -658,22 +683,29 @@
       <c r="G4">
         <v>16919603.417713501</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.0148527917094405</v>
+      </c>
+      <c r="I4">
+        <v>456676400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>2017</v>
@@ -681,22 +713,29 @@
       <c r="G5">
         <v>17304243.025623702</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.022733370186887</v>
+      </c>
+      <c r="I5">
+        <v>464792900000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>2018</v>
@@ -704,22 +743,29 @@
       <c r="G6">
         <v>17798638.6604435</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.0285707750456179</v>
+      </c>
+      <c r="I6">
+        <v>477005700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -727,22 +773,29 @@
       <c r="G7">
         <v>18292645.569375802</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.0277553198509617</v>
+      </c>
+      <c r="I7">
+        <v>485998400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -750,22 +803,30 @@
       <c r="G8">
         <v>18587190</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.0161017950906621</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I48" si="1">I7*H8</f>
+        <v>493823846651.18964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>2021</v>
@@ -773,22 +834,30 @@
       <c r="G9">
         <v>18849540</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.0141145595434276</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>500793952738.71228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F10">
         <v>2022</v>
@@ -796,22 +865,30 @@
       <c r="G10">
         <v>19124900</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.0146083140490432</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>508109708074.18109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>2023</v>
@@ -819,22 +896,30 @@
       <c r="G11">
         <v>19422190</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.015544656442648</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>516008098921.36841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F12">
         <v>2024</v>
@@ -842,22 +927,30 @@
       <c r="G12">
         <v>19740540</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1.0163910455000182</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>524466011149.16644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>2025</v>
@@ -865,22 +958,30 @@
       <c r="G13">
         <v>20075600</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.0169731932358486</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>533367874102.03595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>2026</v>
@@ -888,22 +989,30 @@
       <c r="G14">
         <v>20424180</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.0173633664747255</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>542628935965.91486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15">
         <v>2027</v>
@@ -911,22 +1020,30 @@
       <c r="G15">
         <v>20784020</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.0176183327800676</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>552189153135.85632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F16">
         <v>2028</v>
@@ -934,22 +1051,30 @@
       <c r="G16">
         <v>21153450</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.0177747134577431</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>562004157107.31995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>2029</v>
@@ -957,22 +1082,30 @@
       <c r="G17">
         <v>21531180</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.0178566616793006</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>572039675203.14587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>2030</v>
@@ -980,22 +1113,30 @@
       <c r="G18">
         <v>21916430</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.017892656138679</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>582274984409.2373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>2031</v>
@@ -1003,22 +1144,30 @@
       <c r="G19">
         <v>22309050</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1.0179144139807441</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>592706099530.57568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <v>2032</v>
@@ -1026,22 +1175,30 @@
       <c r="G20">
         <v>22709530</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.0179514591611925</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>603346038870.88843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>2033</v>
@@ -1049,22 +1206,30 @@
       <c r="G21">
         <v>23118740</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.018019307312833</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>614217916561.28345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F22">
         <v>2034</v>
@@ -1072,22 +1237,30 @@
       <c r="G22">
         <v>23537610</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.0181182019435315</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>625346440810.87598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F23">
         <v>2035</v>
@@ -1095,22 +1268,30 @@
       <c r="G23">
         <v>23967030</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1.0182439933366216</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>636755257110.10962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F24">
         <v>2036</v>
@@ -1118,22 +1299,30 @@
       <c r="G24">
         <v>24407860</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.0183931843036038</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>648467213910.42444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F25">
         <v>2037</v>
@@ -1141,22 +1330,30 @@
       <c r="G25">
         <v>24861010</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1.0185657407081161</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>660506488061.59985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F26">
         <v>2038</v>
@@ -1164,22 +1361,30 @@
       <c r="G26">
         <v>25327180</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.018751048328286</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>672891677140.3894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F27">
         <v>2039</v>
@@ -1187,22 +1392,30 @@
       <c r="G27">
         <v>25806800</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1.0189369681109386</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>685634205372.51294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F28">
         <v>2040</v>
@@ -1210,22 +1423,30 @@
       <c r="G28">
         <v>26300140</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1.0191166669249965</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>698741246109.00391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F29">
         <v>2041</v>
@@ -1233,22 +1454,30 @@
       <c r="G29">
         <v>26807420</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1.0192881102534055</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>712218644302.55627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F30">
         <v>2042</v>
@@ -1256,22 +1485,30 @@
       <c r="G30">
         <v>27328940</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1.0194543152604765</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>726074370343.2074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F31">
         <v>2043</v>
@@ -1279,22 +1516,30 @@
       <c r="G31">
         <v>27864750</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1.0196059561768587</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>740309752629.29663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F32">
         <v>2044</v>
@@ -1302,22 +1547,30 @@
       <c r="G32">
         <v>28414590</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.0197324576750195</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>754917883489.45837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F33">
         <v>2045</v>
@@ -1325,22 +1578,30 @@
       <c r="G33">
         <v>28978050</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1.0198299535555502</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>769887870057.30859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F34">
         <v>2046</v>
@@ -1348,22 +1609,30 @@
       <c r="G34">
         <v>29554850</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.019904720987092</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>785212273302.14587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E35" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F35">
         <v>2047</v>
@@ -1371,22 +1640,30 @@
       <c r="G35">
         <v>30144870</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.0199635592804566</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>800887905067.95532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F36">
         <v>2048</v>
@@ -1394,22 +1671,30 @@
       <c r="G36">
         <v>30747840</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.0200024083699815</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>816907592003.70349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>2049</v>
@@ -1417,22 +1702,30 @@
       <c r="G37">
         <v>31363330</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1.0200173410555018</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>833259909883.67029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F38">
         <v>2050</v>
@@ -1440,22 +1733,30 @@
       <c r="G38">
         <v>31990910</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>1.0200099925613766</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>849933434482.13586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F39">
         <v>2051</v>
@@ -1463,22 +1764,30 @@
       <c r="G39">
         <v>32630430</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1.0199906786021404</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>866924180604.08167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <v>2052</v>
@@ -1486,22 +1795,30 @@
       <c r="G40">
         <v>33282110</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1.0199715419012254</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>884237993202.20154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F41">
         <v>2053</v>
@@ -1509,22 +1826,30 @@
       <c r="G41">
         <v>33946130</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1.0199512590998587</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>901879654510.51782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F42">
         <v>2054</v>
@@ -1532,22 +1857,30 @@
       <c r="G42">
         <v>34622620</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1.0199283394012808</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>919852618364.71326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F43">
         <v>2055</v>
@@ -1555,22 +1888,30 @@
       <c r="G43">
         <v>35311770</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1.0199046172704433</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>938161932678.47803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F44">
         <v>2056</v>
@@ -1578,22 +1919,30 @@
       <c r="G44">
         <v>36014100</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1.0198894023154319</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>956821412794.54346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F45">
         <v>2057</v>
@@ -1601,22 +1950,30 @@
       <c r="G45">
         <v>36730540</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1.0198933195609496</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>975855766922.02466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <v>2058</v>
@@ -1624,22 +1981,30 @@
       <c r="G46">
         <v>37462060</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1.0199158520402913</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>995290765988.70874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F47">
         <v>2059</v>
@@ -1647,28 +2012,44 @@
       <c r="G47">
         <v>38209630</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1.01995538953277</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>1015152180922.3824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F48">
         <v>2060</v>
       </c>
       <c r="G48">
         <v>38974320</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>1.0200130176607312</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>1035468439447.5118</v>
       </c>
     </row>
   </sheetData>
@@ -1683,447 +2064,449 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2014</v>
       </c>
-      <c r="B2" s="7">
-        <f>'OECD Data'!G2*About!$A$15*About!$A$16</f>
-        <v>17065790429654.971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <f>'OECD Data'!I2</f>
+        <v>445869200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2015</v>
       </c>
-      <c r="B3" s="7">
-        <f>'OECD Data'!G3*About!$A$15*About!$A$16</f>
-        <v>17554142592635.627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f>'OECD Data'!I3</f>
+        <v>454952900000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2016</v>
       </c>
-      <c r="B4" s="7">
-        <f>'OECD Data'!G4*About!$A$15*About!$A$16</f>
-        <v>17814870616201.863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>'OECD Data'!I4</f>
+        <v>456676400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2017</v>
       </c>
-      <c r="B5" s="7">
-        <f>'OECD Data'!G5*About!$A$15*About!$A$16</f>
-        <v>18219862664751.477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>'OECD Data'!I5</f>
+        <v>464792900000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2018</v>
       </c>
-      <c r="B6" s="7">
-        <f>'OECD Data'!G6*About!$A$15*About!$A$16</f>
-        <v>18740418262308.145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>'OECD Data'!I6</f>
+        <v>477005700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2019</v>
       </c>
-      <c r="B7" s="7">
-        <f>'OECD Data'!G7*About!$A$15*About!$A$16</f>
-        <v>19260564565319.313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>'OECD Data'!I7</f>
+        <v>485998400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2020</v>
       </c>
-      <c r="B8" s="7">
-        <f>'OECD Data'!G8*About!$A$15*About!$A$16</f>
-        <v>19570694229280.551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>'OECD Data'!I8</f>
+        <v>493823846651.18964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B9" s="7">
-        <f>'OECD Data'!G9*About!$A$15*About!$A$16</f>
-        <v>19846925958285.945</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>'OECD Data'!I9</f>
+        <v>500793952738.71228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2022</v>
       </c>
-      <c r="B10" s="7">
-        <f>'OECD Data'!G10*About!$A$15*About!$A$16</f>
-        <v>20136856085592.691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>'OECD Data'!I10</f>
+        <v>508109708074.18109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2023</v>
       </c>
-      <c r="B11" s="7">
-        <f>'OECD Data'!G11*About!$A$15*About!$A$16</f>
-        <v>20449876595278.277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>'OECD Data'!I11</f>
+        <v>516008098921.36841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2024</v>
       </c>
-      <c r="B12" s="7">
-        <f>'OECD Data'!G12*About!$A$15*About!$A$16</f>
-        <v>20785071453021.242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>'OECD Data'!I12</f>
+        <v>524466011149.16644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2025</v>
       </c>
-      <c r="B13" s="7">
-        <f>'OECD Data'!G13*About!$A$15*About!$A$16</f>
-        <v>21137860487214.293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>'OECD Data'!I13</f>
+        <v>533367874102.03595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2026</v>
       </c>
-      <c r="B14" s="7">
-        <f>'OECD Data'!G14*About!$A$15*About!$A$16</f>
-        <v>21504884905345.414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>'OECD Data'!I14</f>
+        <v>542628935965.91486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2027</v>
       </c>
-      <c r="B15" s="7">
-        <f>'OECD Data'!G15*About!$A$15*About!$A$16</f>
-        <v>21883765124004.84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>'OECD Data'!I15</f>
+        <v>552189153135.85632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2028</v>
       </c>
-      <c r="B16" s="7">
-        <f>'OECD Data'!G16*About!$A$15*About!$A$16</f>
-        <v>22272742778460.578</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>'OECD Data'!I16</f>
+        <v>562004157107.31995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2029</v>
       </c>
-      <c r="B17" s="7">
-        <f>'OECD Data'!G17*About!$A$15*About!$A$16</f>
-        <v>22670459610925.633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>'OECD Data'!I17</f>
+        <v>572039675203.14587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2030</v>
       </c>
-      <c r="B18" s="7">
-        <f>'OECD Data'!G18*About!$A$15*About!$A$16</f>
-        <v>23076094349249.734</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>'OECD Data'!I18</f>
+        <v>582274984409.2373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2031</v>
       </c>
-      <c r="B19" s="7">
-        <f>'OECD Data'!G19*About!$A$15*About!$A$16</f>
-        <v>23489489056480.902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>'OECD Data'!I19</f>
+        <v>592706099530.57568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2032</v>
       </c>
-      <c r="B20" s="7">
-        <f>'OECD Data'!G20*About!$A$15*About!$A$16</f>
-        <v>23911159659995.598</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>'OECD Data'!I20</f>
+        <v>603346038870.88843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2033</v>
       </c>
-      <c r="B21" s="7">
-        <f>'OECD Data'!G21*About!$A$15*About!$A$16</f>
-        <v>24342022194115.273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>'OECD Data'!I21</f>
+        <v>614217916561.28345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2034</v>
       </c>
-      <c r="B22" s="7">
-        <f>'OECD Data'!G22*About!$A$15*About!$A$16</f>
-        <v>24783055867942.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>'OECD Data'!I22</f>
+        <v>625346440810.87598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2035</v>
       </c>
-      <c r="B23" s="7">
-        <f>'OECD Data'!G23*About!$A$15*About!$A$16</f>
-        <v>25235197774058.039</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>'OECD Data'!I23</f>
+        <v>636755257110.10962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2036</v>
       </c>
-      <c r="B24" s="7">
-        <f>'OECD Data'!G24*About!$A$15*About!$A$16</f>
-        <v>25699353417654.18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>'OECD Data'!I24</f>
+        <v>648467213910.42444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2037</v>
       </c>
-      <c r="B25" s="7">
-        <f>'OECD Data'!G25*About!$A$15*About!$A$16</f>
-        <v>26176480949572.586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>'OECD Data'!I25</f>
+        <v>660506488061.59985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2038</v>
       </c>
-      <c r="B26" s="7">
-        <f>'OECD Data'!G26*About!$A$15*About!$A$16</f>
-        <v>26667317408922.48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>'OECD Data'!I26</f>
+        <v>672891677140.3894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2039</v>
       </c>
-      <c r="B27" s="7">
-        <f>'OECD Data'!G27*About!$A$15*About!$A$16</f>
-        <v>27172315548299.516</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>'OECD Data'!I27</f>
+        <v>685634205372.51294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2040</v>
       </c>
-      <c r="B28" s="7">
-        <f>'OECD Data'!G28*About!$A$15*About!$A$16</f>
-        <v>27691759654217.266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>'OECD Data'!I28</f>
+        <v>698741246109.00391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2041</v>
       </c>
-      <c r="B29" s="7">
-        <f>'OECD Data'!G29*About!$A$15*About!$A$16</f>
-        <v>28225881367538.613</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>'OECD Data'!I29</f>
+        <v>712218644302.55627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2042</v>
       </c>
-      <c r="B30" s="7">
-        <f>'OECD Data'!G30*About!$A$15*About!$A$16</f>
-        <v>28774996562167.52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>'OECD Data'!I30</f>
+        <v>726074370343.2074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2043</v>
       </c>
-      <c r="B31" s="7">
-        <f>'OECD Data'!G31*About!$A$15*About!$A$16</f>
-        <v>29339157883754.633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>'OECD Data'!I31</f>
+        <v>740309752629.29663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2044</v>
       </c>
-      <c r="B32" s="7">
-        <f>'OECD Data'!G32*About!$A$15*About!$A$16</f>
-        <v>29918091574916.535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>'OECD Data'!I32</f>
+        <v>754917883489.45837</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2045</v>
       </c>
-      <c r="B33" s="7">
-        <f>'OECD Data'!G33*About!$A$15*About!$A$16</f>
-        <v>30511365941317.828</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>'OECD Data'!I33</f>
+        <v>769887870057.30859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2046</v>
       </c>
-      <c r="B34" s="7">
-        <f>'OECD Data'!G34*About!$A$15*About!$A$16</f>
-        <v>31118686167314.816</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>'OECD Data'!I34</f>
+        <v>785212273302.14587</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2047</v>
       </c>
-      <c r="B35" s="7">
-        <f>'OECD Data'!G35*About!$A$15*About!$A$16</f>
-        <v>31739925903345.926</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>'OECD Data'!I35</f>
+        <v>800887905067.95532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2048</v>
       </c>
-      <c r="B36" s="7">
-        <f>'OECD Data'!G36*About!$A$15*About!$A$16</f>
-        <v>32374800862897.605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>'OECD Data'!I36</f>
+        <v>816907592003.70349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2049</v>
       </c>
-      <c r="B37" s="7">
-        <f>'OECD Data'!G37*About!$A$15*About!$A$16</f>
-        <v>33022858293374.176</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>'OECD Data'!I37</f>
+        <v>833259909883.67029</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2050</v>
       </c>
-      <c r="B38" s="7">
-        <f>'OECD Data'!G38*About!$A$15*About!$A$16</f>
-        <v>33683645442179.992</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>'OECD Data'!I38</f>
+        <v>849933434482.13586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2051</v>
       </c>
-      <c r="B39" s="7">
-        <f>'OECD Data'!G39*About!$A$15*About!$A$16</f>
-        <v>34357004372363.063</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f>'OECD Data'!I39</f>
+        <v>866924180604.08167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2052</v>
       </c>
-      <c r="B40" s="7">
-        <f>'OECD Data'!G40*About!$A$15*About!$A$16</f>
-        <v>35043166724786.297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>'OECD Data'!I40</f>
+        <v>884237993202.20154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2053</v>
       </c>
-      <c r="B41" s="7">
-        <f>'OECD Data'!G41*About!$A$15*About!$A$16</f>
-        <v>35742322023792.047</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f>'OECD Data'!I41</f>
+        <v>901879654510.51782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2054</v>
       </c>
-      <c r="B42" s="7">
-        <f>'OECD Data'!G42*About!$A$15*About!$A$16</f>
-        <v>36454607148072.055</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f>'OECD Data'!I42</f>
+        <v>919852618364.71326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2055</v>
       </c>
-      <c r="B43" s="7">
-        <f>'OECD Data'!G43*About!$A$15*About!$A$16</f>
-        <v>37180222151098.805</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>'OECD Data'!I43</f>
+        <v>938161932678.47803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2056</v>
       </c>
-      <c r="B44" s="7">
-        <f>'OECD Data'!G44*About!$A$15*About!$A$16</f>
-        <v>37919714547639.141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f>'OECD Data'!I44</f>
+        <v>956821412794.54346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2057</v>
       </c>
-      <c r="B45" s="7">
-        <f>'OECD Data'!G45*About!$A$15*About!$A$16</f>
-        <v>38674063546795.313</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f>'OECD Data'!I45</f>
+        <v>975855766922.02466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2058</v>
       </c>
-      <c r="B46" s="7">
-        <f>'OECD Data'!G46*About!$A$15*About!$A$16</f>
-        <v>39444290474190.117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f>'OECD Data'!I46</f>
+        <v>995290765988.70874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2059</v>
       </c>
-      <c r="B47" s="7">
-        <f>'OECD Data'!G47*About!$A$15*About!$A$16</f>
-        <v>40231416655446.305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>'OECD Data'!I47</f>
+        <v>1015152180922.3824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2060</v>
       </c>
-      <c r="B48" s="7">
-        <f>'OECD Data'!G48*About!$A$15*About!$A$16</f>
-        <v>41036568707487.984</v>
+      <c r="B48">
+        <f>'OECD Data'!I48</f>
+        <v>1035468439447.5118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38480" yWindow="7060" windowWidth="23420" windowHeight="11320" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11310" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BGDP" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -368,13 +368,13 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="77.5" customWidth="1" style="7" min="2" max="2"/>
+    <col width="77.5703125" customWidth="1" style="7" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,20 +488,18 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.1640625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.140625" customWidth="1" style="7" min="1" max="1"/>
     <col width="21" customWidth="1" style="7" min="2" max="2"/>
-    <col width="10.83203125" customWidth="1" style="7" min="3" max="3"/>
+    <col width="10.85546875" customWidth="1" style="7" min="3" max="3"/>
     <col width="13" customWidth="1" style="7" min="4" max="4"/>
-    <col width="13.33203125" customWidth="1" style="7" min="5" max="5"/>
-    <col width="17.1640625" customWidth="1" style="7" min="7" max="7"/>
-    <col width="13.83203125" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col width="11.83203125" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
+    <col width="13.28515625" customWidth="1" style="7" min="5" max="5"/>
+    <col width="17.140625" customWidth="1" style="7" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -537,17 +535,7 @@
       </c>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>National GDP</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>National Growth</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>State GDP</t>
+          <t>Value</t>
         </is>
       </c>
     </row>
@@ -583,10 +571,6 @@
       <c r="G2" t="n">
         <v>16208167.4518012</v>
       </c>
-      <c r="H2">
-        <f>G2/G2</f>
-        <v/>
-      </c>
       <c r="I2" t="n">
         <v>445869200000</v>
       </c>
@@ -623,10 +607,6 @@
       <c r="G3" s="5" t="n">
         <v>16671978.0010791</v>
       </c>
-      <c r="H3">
-        <f>G3/G2</f>
-        <v/>
-      </c>
       <c r="I3" t="n">
         <v>454952900000</v>
       </c>
@@ -663,10 +643,6 @@
       <c r="G4" t="n">
         <v>16919603.4177135</v>
       </c>
-      <c r="H4">
-        <f>G4/G3</f>
-        <v/>
-      </c>
       <c r="I4" t="n">
         <v>456676400000</v>
       </c>
@@ -703,10 +679,6 @@
       <c r="G5" t="n">
         <v>17304243.0256237</v>
       </c>
-      <c r="H5">
-        <f>G5/G4</f>
-        <v/>
-      </c>
       <c r="I5" t="n">
         <v>464792900000</v>
       </c>
@@ -743,10 +715,6 @@
       <c r="G6" t="n">
         <v>17798638.6604435</v>
       </c>
-      <c r="H6">
-        <f>G6/G5</f>
-        <v/>
-      </c>
       <c r="I6" t="n">
         <v>477005700000</v>
       </c>
@@ -783,10 +751,6 @@
       <c r="G7" t="n">
         <v>18292645.5693758</v>
       </c>
-      <c r="H7">
-        <f>G7/G6</f>
-        <v/>
-      </c>
       <c r="I7" t="n">
         <v>485998400000</v>
       </c>
@@ -823,14 +787,6 @@
       <c r="G8" t="n">
         <v>18587190</v>
       </c>
-      <c r="H8">
-        <f>G8/G7</f>
-        <v/>
-      </c>
-      <c r="I8">
-        <f>I7*H8</f>
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -864,14 +820,6 @@
       <c r="G9" t="n">
         <v>18849540</v>
       </c>
-      <c r="H9">
-        <f>G9/G8</f>
-        <v/>
-      </c>
-      <c r="I9">
-        <f>I8*H9</f>
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -905,14 +853,6 @@
       <c r="G10" t="n">
         <v>19124900</v>
       </c>
-      <c r="H10">
-        <f>G10/G9</f>
-        <v/>
-      </c>
-      <c r="I10">
-        <f>I9*H10</f>
-        <v/>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -946,14 +886,6 @@
       <c r="G11" t="n">
         <v>19422190</v>
       </c>
-      <c r="H11">
-        <f>G11/G10</f>
-        <v/>
-      </c>
-      <c r="I11">
-        <f>I10*H11</f>
-        <v/>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -987,14 +919,6 @@
       <c r="G12" t="n">
         <v>19740540</v>
       </c>
-      <c r="H12">
-        <f>G12/G11</f>
-        <v/>
-      </c>
-      <c r="I12">
-        <f>I11*H12</f>
-        <v/>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1028,14 +952,6 @@
       <c r="G13" t="n">
         <v>20075600</v>
       </c>
-      <c r="H13">
-        <f>G13/G12</f>
-        <v/>
-      </c>
-      <c r="I13">
-        <f>I12*H13</f>
-        <v/>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1069,14 +985,6 @@
       <c r="G14" t="n">
         <v>20424180</v>
       </c>
-      <c r="H14">
-        <f>G14/G13</f>
-        <v/>
-      </c>
-      <c r="I14">
-        <f>I13*H14</f>
-        <v/>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1110,14 +1018,6 @@
       <c r="G15" t="n">
         <v>20784020</v>
       </c>
-      <c r="H15">
-        <f>G15/G14</f>
-        <v/>
-      </c>
-      <c r="I15">
-        <f>I14*H15</f>
-        <v/>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1151,14 +1051,6 @@
       <c r="G16" t="n">
         <v>21153450</v>
       </c>
-      <c r="H16">
-        <f>G16/G15</f>
-        <v/>
-      </c>
-      <c r="I16">
-        <f>I15*H16</f>
-        <v/>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1192,14 +1084,6 @@
       <c r="G17" t="n">
         <v>21531180</v>
       </c>
-      <c r="H17">
-        <f>G17/G16</f>
-        <v/>
-      </c>
-      <c r="I17">
-        <f>I16*H17</f>
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1233,14 +1117,6 @@
       <c r="G18" t="n">
         <v>21916430</v>
       </c>
-      <c r="H18">
-        <f>G18/G17</f>
-        <v/>
-      </c>
-      <c r="I18">
-        <f>I17*H18</f>
-        <v/>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1274,14 +1150,6 @@
       <c r="G19" t="n">
         <v>22309050</v>
       </c>
-      <c r="H19">
-        <f>G19/G18</f>
-        <v/>
-      </c>
-      <c r="I19">
-        <f>I18*H19</f>
-        <v/>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1315,14 +1183,6 @@
       <c r="G20" t="n">
         <v>22709530</v>
       </c>
-      <c r="H20">
-        <f>G20/G19</f>
-        <v/>
-      </c>
-      <c r="I20">
-        <f>I19*H20</f>
-        <v/>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1356,14 +1216,6 @@
       <c r="G21" t="n">
         <v>23118740</v>
       </c>
-      <c r="H21">
-        <f>G21/G20</f>
-        <v/>
-      </c>
-      <c r="I21">
-        <f>I20*H21</f>
-        <v/>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1397,14 +1249,6 @@
       <c r="G22" t="n">
         <v>23537610</v>
       </c>
-      <c r="H22">
-        <f>G22/G21</f>
-        <v/>
-      </c>
-      <c r="I22">
-        <f>I21*H22</f>
-        <v/>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1438,14 +1282,6 @@
       <c r="G23" t="n">
         <v>23967030</v>
       </c>
-      <c r="H23">
-        <f>G23/G22</f>
-        <v/>
-      </c>
-      <c r="I23">
-        <f>I22*H23</f>
-        <v/>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1479,14 +1315,6 @@
       <c r="G24" t="n">
         <v>24407860</v>
       </c>
-      <c r="H24">
-        <f>G24/G23</f>
-        <v/>
-      </c>
-      <c r="I24">
-        <f>I23*H24</f>
-        <v/>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1520,14 +1348,6 @@
       <c r="G25" t="n">
         <v>24861010</v>
       </c>
-      <c r="H25">
-        <f>G25/G24</f>
-        <v/>
-      </c>
-      <c r="I25">
-        <f>I24*H25</f>
-        <v/>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1561,14 +1381,6 @@
       <c r="G26" t="n">
         <v>25327180</v>
       </c>
-      <c r="H26">
-        <f>G26/G25</f>
-        <v/>
-      </c>
-      <c r="I26">
-        <f>I25*H26</f>
-        <v/>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1602,14 +1414,6 @@
       <c r="G27" t="n">
         <v>25806800</v>
       </c>
-      <c r="H27">
-        <f>G27/G26</f>
-        <v/>
-      </c>
-      <c r="I27">
-        <f>I26*H27</f>
-        <v/>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1643,14 +1447,6 @@
       <c r="G28" t="n">
         <v>26300140</v>
       </c>
-      <c r="H28">
-        <f>G28/G27</f>
-        <v/>
-      </c>
-      <c r="I28">
-        <f>I27*H28</f>
-        <v/>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1684,14 +1480,6 @@
       <c r="G29" t="n">
         <v>26807420</v>
       </c>
-      <c r="H29">
-        <f>G29/G28</f>
-        <v/>
-      </c>
-      <c r="I29">
-        <f>I28*H29</f>
-        <v/>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1725,14 +1513,6 @@
       <c r="G30" t="n">
         <v>27328940</v>
       </c>
-      <c r="H30">
-        <f>G30/G29</f>
-        <v/>
-      </c>
-      <c r="I30">
-        <f>I29*H30</f>
-        <v/>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1766,14 +1546,6 @@
       <c r="G31" t="n">
         <v>27864750</v>
       </c>
-      <c r="H31">
-        <f>G31/G30</f>
-        <v/>
-      </c>
-      <c r="I31">
-        <f>I30*H31</f>
-        <v/>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1807,14 +1579,6 @@
       <c r="G32" t="n">
         <v>28414590</v>
       </c>
-      <c r="H32">
-        <f>G32/G31</f>
-        <v/>
-      </c>
-      <c r="I32">
-        <f>I31*H32</f>
-        <v/>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1848,14 +1612,6 @@
       <c r="G33" t="n">
         <v>28978050</v>
       </c>
-      <c r="H33">
-        <f>G33/G32</f>
-        <v/>
-      </c>
-      <c r="I33">
-        <f>I32*H33</f>
-        <v/>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1889,14 +1645,6 @@
       <c r="G34" t="n">
         <v>29554850</v>
       </c>
-      <c r="H34">
-        <f>G34/G33</f>
-        <v/>
-      </c>
-      <c r="I34">
-        <f>I33*H34</f>
-        <v/>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1930,14 +1678,6 @@
       <c r="G35" t="n">
         <v>30144870</v>
       </c>
-      <c r="H35">
-        <f>G35/G34</f>
-        <v/>
-      </c>
-      <c r="I35">
-        <f>I34*H35</f>
-        <v/>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1971,14 +1711,6 @@
       <c r="G36" t="n">
         <v>30747840</v>
       </c>
-      <c r="H36">
-        <f>G36/G35</f>
-        <v/>
-      </c>
-      <c r="I36">
-        <f>I35*H36</f>
-        <v/>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2012,14 +1744,6 @@
       <c r="G37" t="n">
         <v>31363330</v>
       </c>
-      <c r="H37">
-        <f>G37/G36</f>
-        <v/>
-      </c>
-      <c r="I37">
-        <f>I36*H37</f>
-        <v/>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2053,14 +1777,6 @@
       <c r="G38" t="n">
         <v>31990910</v>
       </c>
-      <c r="H38">
-        <f>G38/G37</f>
-        <v/>
-      </c>
-      <c r="I38">
-        <f>I37*H38</f>
-        <v/>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2094,14 +1810,6 @@
       <c r="G39" t="n">
         <v>32630430</v>
       </c>
-      <c r="H39">
-        <f>G39/G38</f>
-        <v/>
-      </c>
-      <c r="I39">
-        <f>I38*H39</f>
-        <v/>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2135,14 +1843,6 @@
       <c r="G40" t="n">
         <v>33282110</v>
       </c>
-      <c r="H40">
-        <f>G40/G39</f>
-        <v/>
-      </c>
-      <c r="I40">
-        <f>I39*H40</f>
-        <v/>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2176,14 +1876,6 @@
       <c r="G41" t="n">
         <v>33946130</v>
       </c>
-      <c r="H41">
-        <f>G41/G40</f>
-        <v/>
-      </c>
-      <c r="I41">
-        <f>I40*H41</f>
-        <v/>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2217,14 +1909,6 @@
       <c r="G42" t="n">
         <v>34622620</v>
       </c>
-      <c r="H42">
-        <f>G42/G41</f>
-        <v/>
-      </c>
-      <c r="I42">
-        <f>I41*H42</f>
-        <v/>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2258,14 +1942,6 @@
       <c r="G43" t="n">
         <v>35311770</v>
       </c>
-      <c r="H43">
-        <f>G43/G42</f>
-        <v/>
-      </c>
-      <c r="I43">
-        <f>I42*H43</f>
-        <v/>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2299,14 +1975,6 @@
       <c r="G44" t="n">
         <v>36014100</v>
       </c>
-      <c r="H44">
-        <f>G44/G43</f>
-        <v/>
-      </c>
-      <c r="I44">
-        <f>I43*H44</f>
-        <v/>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2340,14 +2008,6 @@
       <c r="G45" t="n">
         <v>36730540</v>
       </c>
-      <c r="H45">
-        <f>G45/G44</f>
-        <v/>
-      </c>
-      <c r="I45">
-        <f>I44*H45</f>
-        <v/>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2381,14 +2041,6 @@
       <c r="G46" t="n">
         <v>37462060</v>
       </c>
-      <c r="H46">
-        <f>G46/G45</f>
-        <v/>
-      </c>
-      <c r="I46">
-        <f>I45*H46</f>
-        <v/>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2422,14 +2074,6 @@
       <c r="G47" t="n">
         <v>38209630</v>
       </c>
-      <c r="H47">
-        <f>G47/G46</f>
-        <v/>
-      </c>
-      <c r="I47">
-        <f>I46*H47</f>
-        <v/>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2462,14 +2106,6 @@
       </c>
       <c r="G48" t="n">
         <v>38974320</v>
-      </c>
-      <c r="H48">
-        <f>G48/G47</f>
-        <v/>
-      </c>
-      <c r="I48">
-        <f>I47*H48</f>
-        <v/>
       </c>
     </row>
   </sheetData>
@@ -2486,14 +2122,14 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17.6640625" customWidth="1" style="7" min="1" max="1"/>
-    <col width="15.1640625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="17.7109375" customWidth="1" style="7" min="1" max="1"/>
+    <col width="15.140625" customWidth="1" style="7" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2513,7 +2149,7 @@
         <v>2014</v>
       </c>
       <c r="B2">
-        <f>'OECD Data'!I2</f>
+        <f>'OECD Data'!G2*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2522,7 +2158,7 @@
         <v>2015</v>
       </c>
       <c r="B3">
-        <f>'OECD Data'!I3</f>
+        <f>'OECD Data'!G3*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2531,7 +2167,7 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <f>'OECD Data'!I4</f>
+        <f>'OECD Data'!G4*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2540,7 +2176,7 @@
         <v>2017</v>
       </c>
       <c r="B5">
-        <f>'OECD Data'!I5</f>
+        <f>'OECD Data'!G5*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2549,7 +2185,7 @@
         <v>2018</v>
       </c>
       <c r="B6">
-        <f>'OECD Data'!I6</f>
+        <f>'OECD Data'!G6*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2558,7 +2194,7 @@
         <v>2019</v>
       </c>
       <c r="B7">
-        <f>'OECD Data'!I7</f>
+        <f>'OECD Data'!G7*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2567,7 +2203,7 @@
         <v>2020</v>
       </c>
       <c r="B8">
-        <f>'OECD Data'!I8</f>
+        <f>'OECD Data'!G8*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2576,7 +2212,7 @@
         <v>2021</v>
       </c>
       <c r="B9">
-        <f>'OECD Data'!I9</f>
+        <f>'OECD Data'!G9*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2585,7 +2221,7 @@
         <v>2022</v>
       </c>
       <c r="B10">
-        <f>'OECD Data'!I10</f>
+        <f>'OECD Data'!G10*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2594,7 +2230,7 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <f>'OECD Data'!I11</f>
+        <f>'OECD Data'!G11*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2603,7 +2239,7 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <f>'OECD Data'!I12</f>
+        <f>'OECD Data'!G12*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2612,7 +2248,7 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <f>'OECD Data'!I13</f>
+        <f>'OECD Data'!G13*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2621,7 +2257,7 @@
         <v>2026</v>
       </c>
       <c r="B14">
-        <f>'OECD Data'!I14</f>
+        <f>'OECD Data'!G14*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2630,7 +2266,7 @@
         <v>2027</v>
       </c>
       <c r="B15">
-        <f>'OECD Data'!I15</f>
+        <f>'OECD Data'!G15*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2639,7 +2275,7 @@
         <v>2028</v>
       </c>
       <c r="B16">
-        <f>'OECD Data'!I16</f>
+        <f>'OECD Data'!G16*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2648,7 +2284,7 @@
         <v>2029</v>
       </c>
       <c r="B17">
-        <f>'OECD Data'!I17</f>
+        <f>'OECD Data'!G17*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2657,7 +2293,7 @@
         <v>2030</v>
       </c>
       <c r="B18">
-        <f>'OECD Data'!I18</f>
+        <f>'OECD Data'!G18*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2666,7 +2302,7 @@
         <v>2031</v>
       </c>
       <c r="B19">
-        <f>'OECD Data'!I19</f>
+        <f>'OECD Data'!G19*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2675,7 +2311,7 @@
         <v>2032</v>
       </c>
       <c r="B20">
-        <f>'OECD Data'!I20</f>
+        <f>'OECD Data'!G20*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2684,7 +2320,7 @@
         <v>2033</v>
       </c>
       <c r="B21">
-        <f>'OECD Data'!I21</f>
+        <f>'OECD Data'!G21*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2693,7 +2329,7 @@
         <v>2034</v>
       </c>
       <c r="B22">
-        <f>'OECD Data'!I22</f>
+        <f>'OECD Data'!G22*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2702,7 +2338,7 @@
         <v>2035</v>
       </c>
       <c r="B23">
-        <f>'OECD Data'!I23</f>
+        <f>'OECD Data'!G23*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2711,7 +2347,7 @@
         <v>2036</v>
       </c>
       <c r="B24">
-        <f>'OECD Data'!I24</f>
+        <f>'OECD Data'!G24*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2720,7 +2356,7 @@
         <v>2037</v>
       </c>
       <c r="B25">
-        <f>'OECD Data'!I25</f>
+        <f>'OECD Data'!G25*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2729,7 +2365,7 @@
         <v>2038</v>
       </c>
       <c r="B26">
-        <f>'OECD Data'!I26</f>
+        <f>'OECD Data'!G26*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2738,7 +2374,7 @@
         <v>2039</v>
       </c>
       <c r="B27">
-        <f>'OECD Data'!I27</f>
+        <f>'OECD Data'!G27*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2747,7 +2383,7 @@
         <v>2040</v>
       </c>
       <c r="B28">
-        <f>'OECD Data'!I28</f>
+        <f>'OECD Data'!G28*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2756,7 +2392,7 @@
         <v>2041</v>
       </c>
       <c r="B29">
-        <f>'OECD Data'!I29</f>
+        <f>'OECD Data'!G29*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2765,7 +2401,7 @@
         <v>2042</v>
       </c>
       <c r="B30">
-        <f>'OECD Data'!I30</f>
+        <f>'OECD Data'!G30*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2774,7 +2410,7 @@
         <v>2043</v>
       </c>
       <c r="B31">
-        <f>'OECD Data'!I31</f>
+        <f>'OECD Data'!G31*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2783,7 +2419,7 @@
         <v>2044</v>
       </c>
       <c r="B32">
-        <f>'OECD Data'!I32</f>
+        <f>'OECD Data'!G32*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2792,7 +2428,7 @@
         <v>2045</v>
       </c>
       <c r="B33">
-        <f>'OECD Data'!I33</f>
+        <f>'OECD Data'!G33*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2801,7 +2437,7 @@
         <v>2046</v>
       </c>
       <c r="B34">
-        <f>'OECD Data'!I34</f>
+        <f>'OECD Data'!G34*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2810,7 +2446,7 @@
         <v>2047</v>
       </c>
       <c r="B35">
-        <f>'OECD Data'!I35</f>
+        <f>'OECD Data'!G35*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2819,7 +2455,7 @@
         <v>2048</v>
       </c>
       <c r="B36">
-        <f>'OECD Data'!I36</f>
+        <f>'OECD Data'!G36*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2828,7 +2464,7 @@
         <v>2049</v>
       </c>
       <c r="B37">
-        <f>'OECD Data'!I37</f>
+        <f>'OECD Data'!G37*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2837,7 +2473,7 @@
         <v>2050</v>
       </c>
       <c r="B38">
-        <f>'OECD Data'!I38</f>
+        <f>'OECD Data'!G38*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2846,7 +2482,7 @@
         <v>2051</v>
       </c>
       <c r="B39">
-        <f>'OECD Data'!I39</f>
+        <f>'OECD Data'!G39*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2855,7 +2491,7 @@
         <v>2052</v>
       </c>
       <c r="B40">
-        <f>'OECD Data'!I40</f>
+        <f>'OECD Data'!G40*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2864,7 +2500,7 @@
         <v>2053</v>
       </c>
       <c r="B41">
-        <f>'OECD Data'!I41</f>
+        <f>'OECD Data'!G41*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2873,7 +2509,7 @@
         <v>2054</v>
       </c>
       <c r="B42">
-        <f>'OECD Data'!I42</f>
+        <f>'OECD Data'!G42*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2882,7 +2518,7 @@
         <v>2055</v>
       </c>
       <c r="B43">
-        <f>'OECD Data'!I43</f>
+        <f>'OECD Data'!G43*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2891,7 +2527,7 @@
         <v>2056</v>
       </c>
       <c r="B44">
-        <f>'OECD Data'!I44</f>
+        <f>'OECD Data'!G44*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2900,7 +2536,7 @@
         <v>2057</v>
       </c>
       <c r="B45">
-        <f>'OECD Data'!I45</f>
+        <f>'OECD Data'!G45*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2909,7 +2545,7 @@
         <v>2058</v>
       </c>
       <c r="B46">
-        <f>'OECD Data'!I46</f>
+        <f>'OECD Data'!G46*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2918,7 +2554,7 @@
         <v>2059</v>
       </c>
       <c r="B47">
-        <f>'OECD Data'!I47</f>
+        <f>'OECD Data'!G47*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>
@@ -2927,7 +2563,7 @@
         <v>2060</v>
       </c>
       <c r="B48">
-        <f>'OECD Data'!I48</f>
+        <f>'OECD Data'!G48*About!$A$15*About!$A$16</f>
         <v/>
       </c>
     </row>

--- a/InputData/io-model/BGDP/BAU GDP.xlsx
+++ b/InputData/io-model/BGDP/BAU GDP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11310" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38480" yWindow="7060" windowWidth="23420" windowHeight="11320" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BGDP" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -368,13 +368,13 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="77.5703125" customWidth="1" style="7" min="2" max="2"/>
+    <col width="77.5" customWidth="1" style="7" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,18 +488,20 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="13.140625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.1640625" customWidth="1" style="7" min="1" max="1"/>
     <col width="21" customWidth="1" style="7" min="2" max="2"/>
-    <col width="10.85546875" customWidth="1" style="7" min="3" max="3"/>
+    <col width="10.83203125" customWidth="1" style="7" min="3" max="3"/>
     <col width="13" customWidth="1" style="7" min="4" max="4"/>
-    <col width="13.28515625" customWidth="1" style="7" min="5" max="5"/>
-    <col width="17.140625" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.33203125" customWidth="1" style="7" min="5" max="5"/>
+    <col width="17.1640625" customWidth="1" style="7" min="7" max="7"/>
+    <col width="13.83203125" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
+    <col width="11.83203125" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -535,7 +537,17 @@
       </c>
       <c r="G1" s="4" t="inlineStr">
         <is>
-          <t>Value</t>
+          <t>National GDP</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>National Growth</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>State GDP</t>
         </is>
       </c>
     </row>
@@ -571,6 +583,10 @@
       <c r="G2" t="n">
         <v>16208167.4518012</v>
       </c>
+      <c r="H2">
+        <f>G2/G2</f>
+        <v/>
+      </c>
       <c r="I2" t="n">
         <v>445869200000</v>
       </c>
@@ -607,6 +623,10 @@
       <c r="G3" s="5" t="n">
         <v>16671978.0010791</v>
       </c>
+      <c r="H3">
+        <f>G3/G2</f>
+        <v/>
+      </c>
       <c r="I3" t="n">
         <v>454952900000</v>
       </c>
@@ -643,6 +663,10 @@
       <c r="G4" t="n">
         <v>16919603.4177135</v>
       </c>
+      <c r="H4">
+        <f>G4/G3</f>
+        <v/>
+      </c>
       <c r="I4" t="n">
         <v>456676400000</v>
       </c>
@@ -679,6 +703,10 @@
       <c r="G5" t="n">
         <v>17304243.0256237</v>
       </c>
+      <c r="H5">
+        <f>G5/G4</f>
+        <v/>
+      </c>
       <c r="I5" t="n">
         <v>464792900000</v>
       </c>
@@ -715,6 +743,10 @@
       <c r="G6" t="n">
         <v>17798638.6604435</v>
       </c>
+      <c r="H6">
+        <f>G6/G5</f>
+        <v/>
+      </c>
       <c r="I6" t="n">
         <v>477005700000</v>
       </c>
@@ -751,6 +783,10 @@
       <c r="G7" t="n">
         <v>18292645.5693758</v>
       </c>
+      <c r="H7">
+        <f>G7/G6</f>
+        <v/>
+      </c>
       <c r="I7" t="n">
         <v>485998400000</v>
       </c>
@@ -787,6 +823,14 @@
       <c r="G8" t="n">
         <v>18587190</v>
       </c>
+      <c r="H8">
+        <f>G8/G7</f>
+        <v/>
+      </c>
+      <c r="I8">
+        <f>I7*H8</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +864,14 @@
       <c r="G9" t="n">
         <v>18849540</v>
       </c>
+      <c r="H9">
+        <f>G9/G8</f>
+        <v/>
+      </c>
+      <c r="I9">
+        <f>I8*H9</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -853,6 +905,14 @@
       <c r="G10" t="n">
         <v>19124900</v>
       </c>
+      <c r="H10">
+        <f>G10/G9</f>
+        <v/>
+      </c>
+      <c r="I10">
+        <f>I9*H10</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -886,6 +946,14 @@
       <c r="G11" t="n">
         <v>19422190</v>
       </c>
+      <c r="H11">
+        <f>G11/G10</f>
+        <v/>
+      </c>
+      <c r="I11">
+        <f>I10*H11</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -919,6 +987,14 @@
       <c r="G12" t="n">
         <v>19740540</v>
       </c>
+      <c r="H12">
+        <f>G12/G11</f>
+        <v/>
+      </c>
+      <c r="I12">
+        <f>I11*H12</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -952,6 +1028,14 @@
       <c r="G13" t="n">
         <v>20075600</v>
       </c>
+      <c r="H13">
+        <f>G13/G12</f>
+        <v/>
+      </c>
+      <c r="I13">
+        <f>I12*H13</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -985,6 +1069,14 @@
       <c r="G14" t="n">
         <v>20424180</v>
       </c>
+      <c r="H14">
+        <f>G14/G13</f>
+        <v/>
+      </c>
+      <c r="I14">
+        <f>I13*H14</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1018,6 +1110,14 @@
       <c r="G15" t="n">
         <v>20784020</v>
       </c>
+      <c r="H15">
+        <f>G15/G14</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>I14*H15</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1051,6 +1151,14 @@
       <c r="G16" t="n">
         <v>21153450</v>
       </c>
+      <c r="H16">
+        <f>G16/G15</f>
+        <v/>
+      </c>
+      <c r="I16">
+        <f>I15*H16</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1084,6 +1192,14 @@
       <c r="G17" t="n">
         <v>21531180</v>
       </c>
+      <c r="H17">
+        <f>G17/G16</f>
+        <v/>
+      </c>
+      <c r="I17">
+        <f>I16*H17</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1117,6 +1233,14 @@
       <c r="G18" t="n">
         <v>21916430</v>
       </c>
+      <c r="H18">
+        <f>G18/G17</f>
+        <v/>
+      </c>
+      <c r="I18">
+        <f>I17*H18</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1150,6 +1274,14 @@
       <c r="G19" t="n">
         <v>22309050</v>
       </c>
+      <c r="H19">
+        <f>G19/G18</f>
+        <v/>
+      </c>
+      <c r="I19">
+        <f>I18*H19</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1183,6 +1315,14 @@
       <c r="G20" t="n">
         <v>22709530</v>
       </c>
+      <c r="H20">
+        <f>G20/G19</f>
+        <v/>
+      </c>
+      <c r="I20">
+        <f>I19*H20</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,6 +1356,14 @@
       <c r="G21" t="n">
         <v>23118740</v>
       </c>
+      <c r="H21">
+        <f>G21/G20</f>
+        <v/>
+      </c>
+      <c r="I21">
+        <f>I20*H21</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1249,6 +1397,14 @@
       <c r="G22" t="n">
         <v>23537610</v>
       </c>
+      <c r="H22">
+        <f>G22/G21</f>
+        <v/>
+      </c>
+      <c r="I22">
+        <f>I21*H22</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1282,6 +1438,14 @@
       <c r="G23" t="n">
         <v>23967030</v>
       </c>
+      <c r="H23">
+        <f>G23/G22</f>
+        <v/>
+      </c>
+      <c r="I23">
+        <f>I22*H23</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1315,6 +1479,14 @@
       <c r="G24" t="n">
         <v>24407860</v>
       </c>
+      <c r="H24">
+        <f>G24/G23</f>
+        <v/>
+      </c>
+      <c r="I24">
+        <f>I23*H24</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1348,6 +1520,14 @@
       <c r="G25" t="n">
         <v>24861010</v>
       </c>
+      <c r="H25">
+        <f>G25/G24</f>
+        <v/>
+      </c>
+      <c r="I25">
+        <f>I24*H25</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1381,6 +1561,14 @@
       <c r="G26" t="n">
         <v>25327180</v>
       </c>
+      <c r="H26">
+        <f>G26/G25</f>
+        <v/>
+      </c>
+      <c r="I26">
+        <f>I25*H26</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1414,6 +1602,14 @@
       <c r="G27" t="n">
         <v>25806800</v>
       </c>
+      <c r="H27">
+        <f>G27/G26</f>
+        <v/>
+      </c>
+      <c r="I27">
+        <f>I26*H27</f>
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1447,6 +1643,14 @@
       <c r="G28" t="n">
         <v>26300140</v>
       </c>
+      <c r="H28">
+        <f>G28/G27</f>
+        <v/>
+      </c>
+      <c r="I28">
+        <f>I27*H28</f>
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1480,6 +1684,14 @@
       <c r="G29" t="n">
         <v>26807420</v>
       </c>
+      <c r="H29">
+        <f>G29/G28</f>
+        <v/>
+      </c>
+      <c r="I29">
+        <f>I28*H29</f>
+        <v/>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1513,6 +1725,14 @@
       <c r="G30" t="n">
         <v>27328940</v>
       </c>
+      <c r="H30">
+        <f>G30/G29</f>
+        <v/>
+      </c>
+      <c r="I30">
+        <f>I29*H30</f>
+        <v/>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1546,6 +1766,14 @@
       <c r="G31" t="n">
         <v>27864750</v>
       </c>
+      <c r="H31">
+        <f>G31/G30</f>
+        <v/>
+      </c>
+      <c r="I31">
+        <f>I30*H31</f>
+        <v/>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1579,6 +1807,14 @@
       <c r="G32" t="n">
         <v>28414590</v>
       </c>
+      <c r="H32">
+        <f>G32/G31</f>
+        <v/>
+      </c>
+      <c r="I32">
+        <f>I31*H32</f>
+        <v/>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1612,6 +1848,14 @@
       <c r="G33" t="n">
         <v>28978050</v>
       </c>
+      <c r="H33">
+        <f>G33/G32</f>
+        <v/>
+      </c>
+      <c r="I33">
+        <f>I32*H33</f>
+        <v/>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1645,6 +1889,14 @@
       <c r="G34" t="n">
         <v>29554850</v>
       </c>
+      <c r="H34">
+        <f>G34/G33</f>
+        <v/>
+      </c>
+      <c r="I34">
+        <f>I33*H34</f>
+        <v/>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1678,6 +1930,14 @@
       <c r="G35" t="n">
         <v>30144870</v>
       </c>
+      <c r="H35">
+        <f>G35/G34</f>
+        <v/>
+      </c>
+      <c r="I35">
+        <f>I34*H35</f>
+        <v/>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1711,6 +1971,14 @@
       <c r="G36" t="n">
         <v>30747840</v>
       </c>
+      <c r="H36">
+        <f>G36/G35</f>
+        <v/>
+      </c>
+      <c r="I36">
+        <f>I35*H36</f>
+        <v/>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1744,6 +2012,14 @@
       <c r="G37" t="n">
         <v>31363330</v>
       </c>
+      <c r="H37">
+        <f>G37/G36</f>
+        <v/>
+      </c>
+      <c r="I37">
+        <f>I36*H37</f>
+        <v/>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1777,6 +2053,14 @@
       <c r="G38" t="n">
         <v>31990910</v>
       </c>
+      <c r="H38">
+        <f>G38/G37</f>
+        <v/>
+      </c>
+      <c r="I38">
+        <f>I37*H38</f>
+        <v/>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1810,6 +2094,14 @@
       <c r="G39" t="n">
         <v>32630430</v>
       </c>
+      <c r="H39">
+        <f>G39/G38</f>
+        <v/>
+      </c>
+      <c r="I39">
+        <f>I38*H39</f>
+        <v/>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1843,6 +2135,14 @@
       <c r="G40" t="n">
         <v>33282110</v>
       </c>
+      <c r="H40">
+        <f>G40/G39</f>
+        <v/>
+      </c>
+      <c r="I40">
+        <f>I39*H40</f>
+        <v/>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1876,6 +2176,14 @@
       <c r="G41" t="n">
         <v>33946130</v>
       </c>
+      <c r="H41">
+        <f>G41/G40</f>
+        <v/>
+      </c>
+      <c r="I41">
+        <f>I40*H41</f>
+        <v/>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1909,6 +2217,14 @@
       <c r="G42" t="n">
         <v>34622620</v>
       </c>
+      <c r="H42">
+        <f>G42/G41</f>
+        <v/>
+      </c>
+      <c r="I42">
+        <f>I41*H42</f>
+        <v/>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1942,6 +2258,14 @@
       <c r="G43" t="n">
         <v>35311770</v>
       </c>
+      <c r="H43">
+        <f>G43/G42</f>
+        <v/>
+      </c>
+      <c r="I43">
+        <f>I42*H43</f>
+        <v/>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1975,6 +2299,14 @@
       <c r="G44" t="n">
         <v>36014100</v>
       </c>
+      <c r="H44">
+        <f>G44/G43</f>
+        <v/>
+      </c>
+      <c r="I44">
+        <f>I43*H44</f>
+        <v/>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2008,6 +2340,14 @@
       <c r="G45" t="n">
         <v>36730540</v>
       </c>
+      <c r="H45">
+        <f>G45/G44</f>
+        <v/>
+      </c>
+      <c r="I45">
+        <f>I44*H45</f>
+        <v/>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2041,6 +2381,14 @@
       <c r="G46" t="n">
         <v>37462060</v>
       </c>
+      <c r="H46">
+        <f>G46/G45</f>
+        <v/>
+      </c>
+      <c r="I46">
+        <f>I45*H46</f>
+        <v/>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2074,6 +2422,14 @@
       <c r="G47" t="n">
         <v>38209630</v>
       </c>
+      <c r="H47">
+        <f>G47/G46</f>
+        <v/>
+      </c>
+      <c r="I47">
+        <f>I46*H47</f>
+        <v/>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2106,6 +2462,14 @@
       </c>
       <c r="G48" t="n">
         <v>38974320</v>
+      </c>
+      <c r="H48">
+        <f>G48/G47</f>
+        <v/>
+      </c>
+      <c r="I48">
+        <f>I47*H48</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2122,14 +2486,14 @@
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="17.7109375" customWidth="1" style="7" min="1" max="1"/>
-    <col width="15.140625" customWidth="1" style="7" min="2" max="2"/>
+    <col width="17.6640625" customWidth="1" style="7" min="1" max="1"/>
+    <col width="15.1640625" customWidth="1" style="7" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2149,7 +2513,7 @@
         <v>2014</v>
       </c>
       <c r="B2">
-        <f>'OECD Data'!G2*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I2</f>
         <v/>
       </c>
     </row>
@@ -2158,7 +2522,7 @@
         <v>2015</v>
       </c>
       <c r="B3">
-        <f>'OECD Data'!G3*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I3</f>
         <v/>
       </c>
     </row>
@@ -2167,7 +2531,7 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <f>'OECD Data'!G4*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I4</f>
         <v/>
       </c>
     </row>
@@ -2176,7 +2540,7 @@
         <v>2017</v>
       </c>
       <c r="B5">
-        <f>'OECD Data'!G5*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I5</f>
         <v/>
       </c>
     </row>
@@ -2185,7 +2549,7 @@
         <v>2018</v>
       </c>
       <c r="B6">
-        <f>'OECD Data'!G6*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I6</f>
         <v/>
       </c>
     </row>
@@ -2194,7 +2558,7 @@
         <v>2019</v>
       </c>
       <c r="B7">
-        <f>'OECD Data'!G7*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I7</f>
         <v/>
       </c>
     </row>
@@ -2203,7 +2567,7 @@
         <v>2020</v>
       </c>
       <c r="B8">
-        <f>'OECD Data'!G8*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I8</f>
         <v/>
       </c>
     </row>
@@ -2212,7 +2576,7 @@
         <v>2021</v>
       </c>
       <c r="B9">
-        <f>'OECD Data'!G9*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I9</f>
         <v/>
       </c>
     </row>
@@ -2221,7 +2585,7 @@
         <v>2022</v>
       </c>
       <c r="B10">
-        <f>'OECD Data'!G10*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I10</f>
         <v/>
       </c>
     </row>
@@ -2230,7 +2594,7 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <f>'OECD Data'!G11*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I11</f>
         <v/>
       </c>
     </row>
@@ -2239,7 +2603,7 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <f>'OECD Data'!G12*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I12</f>
         <v/>
       </c>
     </row>
@@ -2248,7 +2612,7 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <f>'OECD Data'!G13*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I13</f>
         <v/>
       </c>
     </row>
@@ -2257,7 +2621,7 @@
         <v>2026</v>
       </c>
       <c r="B14">
-        <f>'OECD Data'!G14*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I14</f>
         <v/>
       </c>
     </row>
@@ -2266,7 +2630,7 @@
         <v>2027</v>
       </c>
       <c r="B15">
-        <f>'OECD Data'!G15*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I15</f>
         <v/>
       </c>
     </row>
@@ -2275,7 +2639,7 @@
         <v>2028</v>
       </c>
       <c r="B16">
-        <f>'OECD Data'!G16*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I16</f>
         <v/>
       </c>
     </row>
@@ -2284,7 +2648,7 @@
         <v>2029</v>
       </c>
       <c r="B17">
-        <f>'OECD Data'!G17*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I17</f>
         <v/>
       </c>
     </row>
@@ -2293,7 +2657,7 @@
         <v>2030</v>
       </c>
       <c r="B18">
-        <f>'OECD Data'!G18*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I18</f>
         <v/>
       </c>
     </row>
@@ -2302,7 +2666,7 @@
         <v>2031</v>
       </c>
       <c r="B19">
-        <f>'OECD Data'!G19*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I19</f>
         <v/>
       </c>
     </row>
@@ -2311,7 +2675,7 @@
         <v>2032</v>
       </c>
       <c r="B20">
-        <f>'OECD Data'!G20*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I20</f>
         <v/>
       </c>
     </row>
@@ -2320,7 +2684,7 @@
         <v>2033</v>
       </c>
       <c r="B21">
-        <f>'OECD Data'!G21*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I21</f>
         <v/>
       </c>
     </row>
@@ -2329,7 +2693,7 @@
         <v>2034</v>
       </c>
       <c r="B22">
-        <f>'OECD Data'!G22*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I22</f>
         <v/>
       </c>
     </row>
@@ -2338,7 +2702,7 @@
         <v>2035</v>
       </c>
       <c r="B23">
-        <f>'OECD Data'!G23*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I23</f>
         <v/>
       </c>
     </row>
@@ -2347,7 +2711,7 @@
         <v>2036</v>
       </c>
       <c r="B24">
-        <f>'OECD Data'!G24*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I24</f>
         <v/>
       </c>
     </row>
@@ -2356,7 +2720,7 @@
         <v>2037</v>
       </c>
       <c r="B25">
-        <f>'OECD Data'!G25*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I25</f>
         <v/>
       </c>
     </row>
@@ -2365,7 +2729,7 @@
         <v>2038</v>
       </c>
       <c r="B26">
-        <f>'OECD Data'!G26*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I26</f>
         <v/>
       </c>
     </row>
@@ -2374,7 +2738,7 @@
         <v>2039</v>
       </c>
       <c r="B27">
-        <f>'OECD Data'!G27*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I27</f>
         <v/>
       </c>
     </row>
@@ -2383,7 +2747,7 @@
         <v>2040</v>
       </c>
       <c r="B28">
-        <f>'OECD Data'!G28*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I28</f>
         <v/>
       </c>
     </row>
@@ -2392,7 +2756,7 @@
         <v>2041</v>
       </c>
       <c r="B29">
-        <f>'OECD Data'!G29*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I29</f>
         <v/>
       </c>
     </row>
@@ -2401,7 +2765,7 @@
         <v>2042</v>
       </c>
       <c r="B30">
-        <f>'OECD Data'!G30*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I30</f>
         <v/>
       </c>
     </row>
@@ -2410,7 +2774,7 @@
         <v>2043</v>
       </c>
       <c r="B31">
-        <f>'OECD Data'!G31*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I31</f>
         <v/>
       </c>
     </row>
@@ -2419,7 +2783,7 @@
         <v>2044</v>
       </c>
       <c r="B32">
-        <f>'OECD Data'!G32*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I32</f>
         <v/>
       </c>
     </row>
@@ -2428,7 +2792,7 @@
         <v>2045</v>
       </c>
       <c r="B33">
-        <f>'OECD Data'!G33*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I33</f>
         <v/>
       </c>
     </row>
@@ -2437,7 +2801,7 @@
         <v>2046</v>
       </c>
       <c r="B34">
-        <f>'OECD Data'!G34*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I34</f>
         <v/>
       </c>
     </row>
@@ -2446,7 +2810,7 @@
         <v>2047</v>
       </c>
       <c r="B35">
-        <f>'OECD Data'!G35*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I35</f>
         <v/>
       </c>
     </row>
@@ -2455,7 +2819,7 @@
         <v>2048</v>
       </c>
       <c r="B36">
-        <f>'OECD Data'!G36*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I36</f>
         <v/>
       </c>
     </row>
@@ -2464,7 +2828,7 @@
         <v>2049</v>
       </c>
       <c r="B37">
-        <f>'OECD Data'!G37*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I37</f>
         <v/>
       </c>
     </row>
@@ -2473,7 +2837,7 @@
         <v>2050</v>
       </c>
       <c r="B38">
-        <f>'OECD Data'!G38*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I38</f>
         <v/>
       </c>
     </row>
@@ -2482,7 +2846,7 @@
         <v>2051</v>
       </c>
       <c r="B39">
-        <f>'OECD Data'!G39*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I39</f>
         <v/>
       </c>
     </row>
@@ -2491,7 +2855,7 @@
         <v>2052</v>
       </c>
       <c r="B40">
-        <f>'OECD Data'!G40*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I40</f>
         <v/>
       </c>
     </row>
@@ -2500,7 +2864,7 @@
         <v>2053</v>
       </c>
       <c r="B41">
-        <f>'OECD Data'!G41*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I41</f>
         <v/>
       </c>
     </row>
@@ -2509,7 +2873,7 @@
         <v>2054</v>
       </c>
       <c r="B42">
-        <f>'OECD Data'!G42*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I42</f>
         <v/>
       </c>
     </row>
@@ -2518,7 +2882,7 @@
         <v>2055</v>
       </c>
       <c r="B43">
-        <f>'OECD Data'!G43*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I43</f>
         <v/>
       </c>
     </row>
@@ -2527,7 +2891,7 @@
         <v>2056</v>
       </c>
       <c r="B44">
-        <f>'OECD Data'!G44*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I44</f>
         <v/>
       </c>
     </row>
@@ -2536,7 +2900,7 @@
         <v>2057</v>
       </c>
       <c r="B45">
-        <f>'OECD Data'!G45*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I45</f>
         <v/>
       </c>
     </row>
@@ -2545,7 +2909,7 @@
         <v>2058</v>
       </c>
       <c r="B46">
-        <f>'OECD Data'!G46*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I46</f>
         <v/>
       </c>
     </row>
@@ -2554,7 +2918,7 @@
         <v>2059</v>
       </c>
       <c r="B47">
-        <f>'OECD Data'!G47*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I47</f>
         <v/>
       </c>
     </row>
@@ -2563,7 +2927,7 @@
         <v>2060</v>
       </c>
       <c r="B48">
-        <f>'OECD Data'!G48*About!$A$15*About!$A$16</f>
+        <f>'OECD Data'!I48</f>
         <v/>
       </c>
     </row>
